--- a/ExcelProcesser.Tests/resources/matrixTest.xlsx
+++ b/ExcelProcesser.Tests/resources/matrixTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>一：货号，颜色，数量，配码</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>hello</t>
+  </si>
+  <si>
+    <t>gogo</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1459,7 @@
   <dimension ref="A1:L147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1513,6 +1519,12 @@
       </c>
       <c r="B5" t="s">
         <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11">

--- a/ExcelProcesser.Tests/resources/matrixTest.xlsx
+++ b/ExcelProcesser.Tests/resources/matrixTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>一：货号，颜色，数量，配码</t>
   </si>
@@ -85,12 +85,6 @@
     <t>粉红色</t>
   </si>
   <si>
-    <t>ROJO DE VINO</t>
-  </si>
-  <si>
-    <t>酒红色</t>
-  </si>
-  <si>
     <t>合计:</t>
   </si>
   <si>
@@ -104,6 +98,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>apple</t>
   </si>
 </sst>
 </file>
@@ -1034,6 +1031,60 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1051,60 +1102,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -1456,10 +1453,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L147"/>
+  <dimension ref="A1:L144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1471,27 +1468,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.6">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="28.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
@@ -1518,13 +1515,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1577,7 +1574,9 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
@@ -1612,197 +1611,203 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="B18" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="F21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+    <row r="22" spans="1:12">
+      <c r="D22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E22" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="D25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="15"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="15"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="17"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="C34" s="15"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="E34" s="13"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="C37" s="15"/>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:12">
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -1815,12 +1820,12 @@
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
+    <row r="43" spans="1:11">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -1828,7 +1833,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:11">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -1841,7 +1846,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:11">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -1854,7 +1859,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:11">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -1867,7 +1872,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:11">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -1880,7 +1885,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:11">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -1957,6 +1962,7 @@
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
+      <c r="L53" s="19"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="12"/>
@@ -1964,12 +1970,12 @@
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
+      <c r="L54" s="19"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="12"/>
@@ -1977,12 +1983,12 @@
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
+      <c r="L55" s="19"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="12"/>
@@ -2004,6 +2010,7 @@
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
@@ -2017,6 +2024,7 @@
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
@@ -2039,11 +2047,11 @@
       <c r="L59" s="19"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -2053,18 +2061,17 @@
       <c r="L60" s="19"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
-      <c r="L61" s="19"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="12"/>
@@ -2078,62 +2085,62 @@
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
-      <c r="L62" s="19"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
+    </row>
+    <row r="63" spans="1:12" ht="17.399999999999999">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
-      <c r="L63" s="19"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="21"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" ht="17.399999999999999">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
+      <c r="L65" s="25"/>
     </row>
     <row r="66" spans="1:12" ht="17.399999999999999">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="L66" s="25"/>
+    </row>
+    <row r="67" spans="1:12" ht="17.399999999999999">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -2145,48 +2152,46 @@
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
-    </row>
-    <row r="68" spans="1:12" ht="17.399999999999999">
+      <c r="L67" s="25"/>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
-      <c r="L68" s="25"/>
-    </row>
-    <row r="69" spans="1:12" ht="17.399999999999999">
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
-      <c r="L69" s="25"/>
-    </row>
-    <row r="70" spans="1:12" ht="17.399999999999999">
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
-      <c r="L70" s="25"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="12"/>
@@ -2215,7 +2220,7 @@
       <c r="K72" s="12"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="12"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -2228,129 +2233,129 @@
       <c r="K73" s="12"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="90"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="91"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="89"/>
+      <c r="K74" s="92"/>
+      <c r="L74" s="90"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="84"/>
+      <c r="K75" s="85"/>
+      <c r="L75" s="86"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="10"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
+      <c r="A76" s="73"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="77"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="71"/>
-      <c r="B77" s="72"/>
+      <c r="A77" s="69"/>
+      <c r="B77" s="70"/>
       <c r="C77" s="71"/>
       <c r="D77" s="72"/>
-      <c r="E77" s="26"/>
+      <c r="E77" s="27"/>
       <c r="F77" s="73"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="74"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="74"/>
-      <c r="L77" s="72"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="82"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="76"/>
+      <c r="L77" s="77"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="75"/>
-      <c r="B78" s="76"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="86"/>
-      <c r="F78" s="75"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="75"/>
-      <c r="I78" s="76"/>
-      <c r="J78" s="90"/>
-      <c r="K78" s="91"/>
-      <c r="L78" s="92"/>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="79"/>
-      <c r="B79" s="80"/>
-      <c r="C79" s="77"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="87"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="80"/>
-      <c r="H79" s="88"/>
-      <c r="I79" s="89"/>
-      <c r="J79" s="81"/>
-      <c r="K79" s="82"/>
-      <c r="L79" s="83"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="75"/>
+      <c r="K78" s="76"/>
+      <c r="L78" s="77"/>
+    </row>
+    <row r="79" spans="1:12" ht="17.399999999999999">
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="30"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="75"/>
-      <c r="B80" s="76"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="78"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="79"/>
-      <c r="G80" s="80"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="89"/>
-      <c r="J80" s="81"/>
-      <c r="K80" s="82"/>
-      <c r="L80" s="83"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="75"/>
-      <c r="B81" s="76"/>
-      <c r="C81" s="77"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="79"/>
-      <c r="G81" s="80"/>
-      <c r="H81" s="79"/>
-      <c r="I81" s="80"/>
-      <c r="J81" s="81"/>
-      <c r="K81" s="82"/>
-      <c r="L81" s="83"/>
-    </row>
-    <row r="82" spans="1:12" ht="17.399999999999999">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="30"/>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="10"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -2363,7 +2368,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:11">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -2376,8 +2381,8 @@
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="10"/>
+    <row r="85" spans="1:11">
+      <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
@@ -2389,263 +2394,263 @@
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
+    <row r="86" spans="1:11">
+      <c r="A86" s="31"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="37"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
+    <row r="87" spans="1:11">
+      <c r="A87" s="38"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="46"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
+    <row r="88" spans="1:11">
+      <c r="A88" s="38"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="46"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="31"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="37"/>
+    <row r="89" spans="1:11">
+      <c r="A89" s="38"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="48"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
     </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="38"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="42"/>
+    <row r="90" spans="1:11">
+      <c r="A90" s="49"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="52"/>
       <c r="F90" s="43"/>
       <c r="G90" s="44"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="46"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="53"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="38"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="42"/>
+    <row r="91" spans="1:11">
+      <c r="A91" s="49"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="52"/>
       <c r="F91" s="43"/>
       <c r="G91" s="44"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="46"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="55"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="38"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="42"/>
+    <row r="92" spans="1:11">
+      <c r="A92" s="49"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="52"/>
       <c r="F92" s="43"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="48"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="56"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="49"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="51"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="53"/>
+    <row r="93" spans="1:11">
+      <c r="A93" s="57"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="62"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="49"/>
-      <c r="B94" s="54"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="51"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="44"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="55"/>
+    <row r="94" spans="1:11">
+      <c r="A94" s="63"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="49"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="44"/>
-      <c r="I95" s="56"/>
+    <row r="95" spans="1:11">
+      <c r="A95" s="31"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="37"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:12">
-      <c r="A96" s="57"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="58"/>
-      <c r="H96" s="58"/>
-      <c r="I96" s="62"/>
+    <row r="96" spans="1:11">
+      <c r="A96" s="38"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="46"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="63"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="46"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="31"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="37"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="48"/>
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="38"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="42"/>
+      <c r="A99" s="49"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="52"/>
       <c r="F99" s="43"/>
       <c r="G99" s="44"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="46"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="53"/>
       <c r="J99" s="12"/>
       <c r="K99" s="12"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="38"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="42"/>
+      <c r="A100" s="49"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="52"/>
       <c r="F100" s="43"/>
       <c r="G100" s="44"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="46"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="55"/>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="38"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="47"/>
-      <c r="E101" s="42"/>
+      <c r="A101" s="49"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="52"/>
       <c r="F101" s="43"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="48"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="56"/>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="49"/>
-      <c r="B102" s="50"/>
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="52"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="53"/>
+      <c r="A102" s="57"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="62"/>
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="49"/>
-      <c r="B103" s="54"/>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="55"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="49"/>
-      <c r="B104" s="50"/>
-      <c r="C104" s="51"/>
-      <c r="D104" s="51"/>
-      <c r="E104" s="52"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="56"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="57"/>
-      <c r="B105" s="58"/>
-      <c r="C105" s="59"/>
-      <c r="D105" s="59"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="58"/>
-      <c r="H105" s="58"/>
-      <c r="I105" s="62"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
     </row>
@@ -2663,7 +2668,7 @@
       <c r="K106" s="12"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="10"/>
+      <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
@@ -2702,26 +2707,26 @@
       <c r="K109" s="12"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="64"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="12"/>
@@ -2741,34 +2746,32 @@
       <c r="K112" s="12"/>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="64"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="64"/>
+      <c r="A113" s="65"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
+      <c r="A114" s="66"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
+      <c r="A115" s="66"/>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
@@ -2780,8 +2783,7 @@
       <c r="K115" s="12"/>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="65"/>
-      <c r="B116" s="12"/>
+      <c r="A116" s="66"/>
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
@@ -2831,276 +2833,240 @@
     <row r="120" spans="1:12">
       <c r="A120" s="66"/>
       <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
+      <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="66"/>
       <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
+      <c r="D121" s="67"/>
       <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
+      <c r="H121" s="66"/>
+      <c r="I121" s="66"/>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="66"/>
       <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
+      <c r="D122" s="7"/>
       <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
-    </row>
-    <row r="123" spans="1:12">
+    </row>
+    <row r="123" spans="1:12" ht="17.399999999999999">
       <c r="A123" s="66"/>
       <c r="C123" s="12"/>
       <c r="D123" s="7"/>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="F123" s="14"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="7"/>
+      <c r="L123" s="25"/>
+    </row>
+    <row r="124" spans="1:12" ht="17.399999999999999">
       <c r="A124" s="66"/>
       <c r="C124" s="12"/>
-      <c r="D124" s="67"/>
+      <c r="F124" s="14"/>
       <c r="G124" s="12"/>
-      <c r="H124" s="66"/>
-      <c r="I124" s="66"/>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="A125" s="66"/>
+      <c r="H124" s="7"/>
+      <c r="L124" s="25"/>
+    </row>
+    <row r="125" spans="1:12" ht="17.399999999999999">
       <c r="C125" s="12"/>
-      <c r="D125" s="7"/>
+      <c r="D125" s="12"/>
+      <c r="F125" s="12"/>
       <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="25"/>
     </row>
     <row r="126" spans="1:12" ht="17.399999999999999">
       <c r="A126" s="66"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="7"/>
-      <c r="F126" s="14"/>
+      <c r="D126" s="12"/>
+      <c r="F126" s="12"/>
       <c r="G126" s="12"/>
-      <c r="H126" s="7"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
       <c r="L126" s="25"/>
     </row>
     <row r="127" spans="1:12" ht="17.399999999999999">
-      <c r="A127" s="66"/>
-      <c r="C127" s="12"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="7"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
       <c r="L127" s="25"/>
     </row>
     <row r="128" spans="1:12" ht="17.399999999999999">
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
+      <c r="I128" s="7"/>
       <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
+      <c r="K128" s="14"/>
       <c r="L128" s="25"/>
     </row>
     <row r="129" spans="1:12" ht="17.399999999999999">
-      <c r="A129" s="66"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
+      <c r="D129" s="7"/>
+      <c r="I129" s="7"/>
       <c r="J129" s="12"/>
-      <c r="K129" s="12"/>
+      <c r="K129" s="14"/>
       <c r="L129" s="25"/>
     </row>
     <row r="130" spans="1:12" ht="17.399999999999999">
+      <c r="D130" s="68"/>
+      <c r="I130" s="14"/>
       <c r="J130" s="12"/>
-      <c r="K130" s="12"/>
+      <c r="K130" s="14"/>
       <c r="L130" s="25"/>
     </row>
     <row r="131" spans="1:12" ht="17.399999999999999">
-      <c r="I131" s="7"/>
+      <c r="I131" s="14"/>
       <c r="J131" s="12"/>
-      <c r="K131" s="14"/>
+      <c r="K131" s="25"/>
       <c r="L131" s="25"/>
     </row>
     <row r="132" spans="1:12" ht="17.399999999999999">
+      <c r="A132" s="7"/>
+      <c r="C132" s="14"/>
       <c r="D132" s="7"/>
-      <c r="I132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="I132" s="14"/>
       <c r="J132" s="12"/>
-      <c r="K132" s="14"/>
+      <c r="K132" s="25"/>
       <c r="L132" s="25"/>
     </row>
-    <row r="133" spans="1:12" ht="17.399999999999999">
-      <c r="D133" s="68"/>
+    <row r="133" spans="1:12">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="12"/>
+      <c r="E133" s="7"/>
       <c r="I133" s="14"/>
       <c r="J133" s="12"/>
-      <c r="K133" s="14"/>
-      <c r="L133" s="25"/>
-    </row>
-    <row r="134" spans="1:12" ht="17.399999999999999">
-      <c r="I134" s="14"/>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="7"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="7"/>
       <c r="J134" s="12"/>
-      <c r="K134" s="25"/>
-      <c r="L134" s="25"/>
-    </row>
-    <row r="135" spans="1:12" ht="17.399999999999999">
-      <c r="A135" s="7"/>
+    </row>
+    <row r="135" spans="1:12">
       <c r="C135" s="14"/>
-      <c r="D135" s="7"/>
+      <c r="D135" s="12"/>
       <c r="E135" s="7"/>
-      <c r="I135" s="14"/>
+      <c r="F135" s="7"/>
       <c r="J135" s="12"/>
-      <c r="K135" s="25"/>
-      <c r="L135" s="25"/>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="12"/>
-      <c r="E136" s="7"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="12"/>
-    </row>
-    <row r="137" spans="1:12">
-      <c r="A137" s="7"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="J136" s="14"/>
+    </row>
+    <row r="137" spans="1:12" ht="17.399999999999999">
       <c r="C137" s="14"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="7"/>
-      <c r="J137" s="12"/>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="25"/>
+      <c r="L137" s="25"/>
+    </row>
+    <row r="138" spans="1:12" ht="17.399999999999999">
+      <c r="A138" s="14"/>
+      <c r="B138" s="14"/>
       <c r="C138" s="14"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="J138" s="12"/>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="D138" s="7"/>
+      <c r="E138" s="14"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="25"/>
+      <c r="L138" s="25"/>
+    </row>
+    <row r="139" spans="1:12" ht="17.399999999999999">
+      <c r="A139" s="7"/>
+      <c r="B139" s="14"/>
       <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
+      <c r="D139" s="67"/>
       <c r="E139" s="14"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
       <c r="J139" s="14"/>
-    </row>
-    <row r="140" spans="1:12" ht="17.399999999999999">
+      <c r="K139" s="25"/>
+      <c r="L139" s="25"/>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="14"/>
+      <c r="B140" s="14"/>
       <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
       <c r="E140" s="14"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
       <c r="J140" s="14"/>
-      <c r="K140" s="25"/>
-      <c r="L140" s="25"/>
-    </row>
-    <row r="141" spans="1:12" ht="17.399999999999999">
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
-      <c r="D141" s="7"/>
       <c r="E141" s="14"/>
+      <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
       <c r="J141" s="14"/>
-      <c r="K141" s="25"/>
-      <c r="L141" s="25"/>
-    </row>
-    <row r="142" spans="1:12" ht="17.399999999999999">
-      <c r="A142" s="7"/>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
-      <c r="D142" s="67"/>
       <c r="E142" s="14"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
       <c r="J142" s="14"/>
-      <c r="K142" s="25"/>
-      <c r="L142" s="25"/>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
       <c r="E143" s="14"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
       <c r="J143" s="14"/>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
       <c r="E144" s="14"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
       <c r="J144" s="14"/>
-    </row>
-    <row r="145" spans="1:10">
-      <c r="A145" s="14"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="14"/>
-    </row>
-    <row r="146" spans="1:10">
-      <c r="A146" s="14"/>
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="14"/>
-    </row>
-    <row r="147" spans="1:10">
-      <c r="A147" s="14"/>
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="A78:B79"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:G79"/>
-    <mergeCell ref="H78:I81"/>
-    <mergeCell ref="J78:L79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="J80:L80"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="H75:I78"/>
+    <mergeCell ref="J75:L76"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
     <mergeCell ref="J77:L77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelProcesser.Tests/resources/matrixTest.xlsx
+++ b/ExcelProcesser.Tests/resources/matrixTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>一：货号，颜色，数量，配码</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>apple</t>
   </si>
 </sst>
 </file>
@@ -1031,6 +1028,24 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1084,24 +1099,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -1456,7 +1453,7 @@
   <dimension ref="A1:L144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1468,27 +1465,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.6">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:11" ht="28.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
@@ -1573,14 +1570,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2233,74 +2228,74 @@
       <c r="K73" s="12"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="89"/>
-      <c r="B74" s="90"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="90"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="72"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="91"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="89"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="89"/>
-      <c r="K74" s="92"/>
-      <c r="L74" s="90"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="72"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="69"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="84"/>
-      <c r="K75" s="85"/>
-      <c r="L75" s="86"/>
+      <c r="A75" s="75"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="90"/>
+      <c r="K75" s="91"/>
+      <c r="L75" s="92"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="73"/>
-      <c r="B76" s="74"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="81"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="82"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="77"/>
+      <c r="A76" s="79"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="80"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="89"/>
+      <c r="J76" s="81"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="83"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="69"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
+      <c r="A77" s="75"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="78"/>
       <c r="E77" s="27"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="74"/>
-      <c r="H77" s="82"/>
-      <c r="I77" s="83"/>
-      <c r="J77" s="75"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="77"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="80"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="89"/>
+      <c r="J77" s="81"/>
+      <c r="K77" s="82"/>
+      <c r="L77" s="83"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="69"/>
-      <c r="B78" s="70"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="72"/>
+      <c r="A78" s="75"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="78"/>
       <c r="E78" s="27"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="73"/>
-      <c r="I78" s="74"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="76"/>
-      <c r="L78" s="77"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="80"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="80"/>
+      <c r="J78" s="81"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="83"/>
     </row>
     <row r="79" spans="1:12" ht="17.399999999999999">
       <c r="A79" s="28"/>
@@ -3047,13 +3042,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:L74"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="F78:G78"/>
@@ -3068,6 +3056,13 @@
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="J77:L77"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:L74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelProcesser.Tests/resources/matrixTest.xlsx
+++ b/ExcelProcesser.Tests/resources/matrixTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>一：货号，颜色，数量，配码</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>2   2     3    3    2    1</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1456,7 @@
   <dimension ref="A1:L144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1542,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>

--- a/ExcelProcesser.Tests/resources/matrixTest.xlsx
+++ b/ExcelProcesser.Tests/resources/matrixTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>一：货号，颜色，数量，配码</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>35  36    37   38   39  40</t>
-  </si>
-  <si>
-    <t>NEGRO</t>
   </si>
   <si>
     <r>
@@ -49,22 +46,13 @@
     <t>黑色</t>
   </si>
   <si>
-    <t>BLANCO</t>
-  </si>
-  <si>
     <t>白色</t>
-  </si>
-  <si>
-    <t>VERDE</t>
   </si>
   <si>
     <t>1   2     3    3    2    1</t>
   </si>
   <si>
     <t>绿色</t>
-  </si>
-  <si>
-    <t>JEANS</t>
   </si>
   <si>
     <t>牛仔色</t>
@@ -77,9 +65,6 @@
   </si>
   <si>
     <t>FANOL-1，3216双，67箱，条形码：7453089535059</t>
-  </si>
-  <si>
-    <t>ROSADO</t>
   </si>
   <si>
     <t>粉红色</t>
@@ -101,6 +86,18 @@
   </si>
   <si>
     <t>2   2     3    3    2    1</t>
+  </si>
+  <si>
+    <t>COLOR1</t>
+  </si>
+  <si>
+    <t>COLOR2</t>
+  </si>
+  <si>
+    <t>COLOR3</t>
+  </si>
+  <si>
+    <t>COLOR4</t>
   </si>
 </sst>
 </file>
@@ -1031,6 +1028,60 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1048,60 +1099,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -1456,7 +1453,7 @@
   <dimension ref="A1:L144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1468,27 +1465,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.6">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="28.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
@@ -1515,13 +1512,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1531,81 +1528,81 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="F7" t="s">
         <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="B13" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="F14" t="s">
         <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1613,7 +1610,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1623,43 +1620,43 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="F19" t="s">
         <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="D22" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F22" s="9"/>
     </row>
@@ -2231,74 +2228,74 @@
       <c r="K73" s="12"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="71"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="72"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="90"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="74"/>
-      <c r="L74" s="72"/>
+      <c r="F74" s="91"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="89"/>
+      <c r="K74" s="92"/>
+      <c r="L74" s="90"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="75"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="86"/>
-      <c r="F75" s="75"/>
-      <c r="G75" s="76"/>
-      <c r="H75" s="75"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="90"/>
-      <c r="K75" s="91"/>
-      <c r="L75" s="92"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="84"/>
+      <c r="K75" s="85"/>
+      <c r="L75" s="86"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="79"/>
-      <c r="B76" s="80"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="87"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="88"/>
-      <c r="I76" s="89"/>
-      <c r="J76" s="81"/>
-      <c r="K76" s="82"/>
-      <c r="L76" s="83"/>
+      <c r="A76" s="73"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="77"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="75"/>
-      <c r="B77" s="76"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="78"/>
+      <c r="A77" s="69"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
       <c r="E77" s="27"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="80"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="89"/>
-      <c r="J77" s="81"/>
-      <c r="K77" s="82"/>
-      <c r="L77" s="83"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="82"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="76"/>
+      <c r="L77" s="77"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="75"/>
-      <c r="B78" s="76"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="78"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="72"/>
       <c r="E78" s="27"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="80"/>
-      <c r="H78" s="79"/>
-      <c r="I78" s="80"/>
-      <c r="J78" s="81"/>
-      <c r="K78" s="82"/>
-      <c r="L78" s="83"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="75"/>
+      <c r="K78" s="76"/>
+      <c r="L78" s="77"/>
     </row>
     <row r="79" spans="1:12" ht="17.399999999999999">
       <c r="A79" s="28"/>
@@ -3045,6 +3042,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:L74"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="F78:G78"/>
@@ -3059,13 +3063,6 @@
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="J77:L77"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:L74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelProcesser.Tests/resources/matrixTest.xlsx
+++ b/ExcelProcesser.Tests/resources/matrixTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>一：货号，颜色，数量，配码</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>COLOR4</t>
+  </si>
+  <si>
+    <t>Begin</t>
+  </si>
+  <si>
+    <t>XUntil</t>
+  </si>
+  <si>
+    <t>YUntil</t>
   </si>
 </sst>
 </file>
@@ -1028,6 +1037,24 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1081,24 +1108,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -1453,7 +1462,7 @@
   <dimension ref="A1:L144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1465,27 +1474,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.6">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:11" ht="28.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
@@ -1536,6 +1545,12 @@
       <c r="F7" t="s">
         <v>4</v>
       </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
@@ -1568,6 +1583,9 @@
       </c>
       <c r="F10" t="s">
         <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2228,76 +2246,76 @@
       <c r="K73" s="12"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="89"/>
-      <c r="B74" s="90"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="90"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="72"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="91"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="89"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="89"/>
-      <c r="K74" s="92"/>
-      <c r="L74" s="90"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="72"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="69"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="84"/>
-      <c r="K75" s="85"/>
-      <c r="L75" s="86"/>
+      <c r="A75" s="75"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="90"/>
+      <c r="K75" s="91"/>
+      <c r="L75" s="92"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="73"/>
-      <c r="B76" s="74"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="81"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="82"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="77"/>
+      <c r="A76" s="79"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="80"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="89"/>
+      <c r="J76" s="81"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="83"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="69"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
+      <c r="A77" s="75"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="78"/>
       <c r="E77" s="27"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="74"/>
-      <c r="H77" s="82"/>
-      <c r="I77" s="83"/>
-      <c r="J77" s="75"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="77"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="80"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="89"/>
+      <c r="J77" s="81"/>
+      <c r="K77" s="82"/>
+      <c r="L77" s="83"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="69"/>
-      <c r="B78" s="70"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="72"/>
+      <c r="A78" s="75"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="78"/>
       <c r="E78" s="27"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="73"/>
-      <c r="I78" s="74"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="76"/>
-      <c r="L78" s="77"/>
-    </row>
-    <row r="79" spans="1:12" ht="17.399999999999999">
+      <c r="F78" s="79"/>
+      <c r="G78" s="80"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="80"/>
+      <c r="J78" s="81"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="83"/>
+    </row>
+    <row r="79" spans="1:12" ht="20.399999999999999">
       <c r="A79" s="28"/>
       <c r="B79" s="28"/>
       <c r="C79" s="29"/>
@@ -3042,13 +3060,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:L74"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="F78:G78"/>
@@ -3063,6 +3074,13 @@
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="J77:L77"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:L74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelProcesser.Tests/resources/matrixTest.xlsx
+++ b/ExcelProcesser.Tests/resources/matrixTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>一：货号，颜色，数量，配码</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>YUntil</t>
+  </si>
+  <si>
+    <t>Hello</t>
   </si>
 </sst>
 </file>
@@ -1037,6 +1040,60 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1054,60 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -1462,7 +1465,7 @@
   <dimension ref="A1:L144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1474,27 +1477,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.6">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="28.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
@@ -1586,6 +1589,9 @@
       </c>
       <c r="G10" t="s">
         <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2246,74 +2252,74 @@
       <c r="K73" s="12"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="71"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="72"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="90"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="74"/>
-      <c r="L74" s="72"/>
+      <c r="F74" s="91"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="89"/>
+      <c r="K74" s="92"/>
+      <c r="L74" s="90"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="75"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="86"/>
-      <c r="F75" s="75"/>
-      <c r="G75" s="76"/>
-      <c r="H75" s="75"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="90"/>
-      <c r="K75" s="91"/>
-      <c r="L75" s="92"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="84"/>
+      <c r="K75" s="85"/>
+      <c r="L75" s="86"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="79"/>
-      <c r="B76" s="80"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="87"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="88"/>
-      <c r="I76" s="89"/>
-      <c r="J76" s="81"/>
-      <c r="K76" s="82"/>
-      <c r="L76" s="83"/>
+      <c r="A76" s="73"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="77"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="75"/>
-      <c r="B77" s="76"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="78"/>
+      <c r="A77" s="69"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
       <c r="E77" s="27"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="80"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="89"/>
-      <c r="J77" s="81"/>
-      <c r="K77" s="82"/>
-      <c r="L77" s="83"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="82"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="76"/>
+      <c r="L77" s="77"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="75"/>
-      <c r="B78" s="76"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="78"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="72"/>
       <c r="E78" s="27"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="80"/>
-      <c r="H78" s="79"/>
-      <c r="I78" s="80"/>
-      <c r="J78" s="81"/>
-      <c r="K78" s="82"/>
-      <c r="L78" s="83"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="75"/>
+      <c r="K78" s="76"/>
+      <c r="L78" s="77"/>
     </row>
     <row r="79" spans="1:12" ht="20.399999999999999">
       <c r="A79" s="28"/>
@@ -3060,6 +3066,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:L74"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="F78:G78"/>
@@ -3074,13 +3087,6 @@
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="J77:L77"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:L74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelProcesser.Tests/resources/matrixTest.xlsx
+++ b/ExcelProcesser.Tests/resources/matrixTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>一：货号，颜色，数量，配码</t>
   </si>
@@ -1462,10 +1462,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L144"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1476,7 +1476,7 @@
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36.6">
+    <row r="1" spans="1:13" ht="36.6">
       <c r="A1" s="87"/>
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
@@ -1489,7 +1489,7 @@
       <c r="J1" s="87"/>
       <c r="K1" s="87"/>
     </row>
-    <row r="2" spans="1:11" ht="28.2">
+    <row r="2" spans="1:13" ht="28.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="88"/>
@@ -1501,7 +1501,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="28.2">
+    <row r="3" spans="1:13" ht="28.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1513,13 +1513,13 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6" customHeight="1">
+    <row r="4" spans="1:13" ht="15.6" customHeight="1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1533,12 +1533,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1554,8 +1557,11 @@
       <c r="I7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1602,12 +1608,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:13">
       <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1617,8 +1626,17 @@
       <c r="F14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1629,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:12">
@@ -1651,6 +1669,15 @@
       </c>
       <c r="F19" t="s">
         <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:12">

--- a/ExcelProcesser.Tests/resources/matrixTest.xlsx
+++ b/ExcelProcesser.Tests/resources/matrixTest.xlsx
@@ -1040,6 +1040,24 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1093,24 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -1465,7 +1465,7 @@
   <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1477,27 +1477,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36.6">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:13" ht="28.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
@@ -2279,74 +2279,74 @@
       <c r="K73" s="12"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="89"/>
-      <c r="B74" s="90"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="90"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="72"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="91"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="89"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="89"/>
-      <c r="K74" s="92"/>
-      <c r="L74" s="90"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="72"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="69"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="84"/>
-      <c r="K75" s="85"/>
-      <c r="L75" s="86"/>
+      <c r="A75" s="75"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="90"/>
+      <c r="K75" s="91"/>
+      <c r="L75" s="92"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="73"/>
-      <c r="B76" s="74"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="81"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="82"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="77"/>
+      <c r="A76" s="79"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="80"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="89"/>
+      <c r="J76" s="81"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="83"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="69"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
+      <c r="A77" s="75"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="78"/>
       <c r="E77" s="27"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="74"/>
-      <c r="H77" s="82"/>
-      <c r="I77" s="83"/>
-      <c r="J77" s="75"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="77"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="80"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="89"/>
+      <c r="J77" s="81"/>
+      <c r="K77" s="82"/>
+      <c r="L77" s="83"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="69"/>
-      <c r="B78" s="70"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="72"/>
+      <c r="A78" s="75"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="78"/>
       <c r="E78" s="27"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="73"/>
-      <c r="I78" s="74"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="76"/>
-      <c r="L78" s="77"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="80"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="80"/>
+      <c r="J78" s="81"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="83"/>
     </row>
     <row r="79" spans="1:12" ht="20.399999999999999">
       <c r="A79" s="28"/>
@@ -3093,13 +3093,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:L74"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="F78:G78"/>
@@ -3114,6 +3107,13 @@
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="J77:L77"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:L74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelProcesser.Tests/resources/matrixTest.xlsx
+++ b/ExcelProcesser.Tests/resources/matrixTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\Github\ExcelProcesser\ExcelProcesser.Tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E0227D-1343-44C9-8AC7-976ED89A00D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189C96DB-5A04-48C3-A090-A67038339B79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1485,7 +1485,7 @@
   <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1540,16 +1540,16 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
         <v>17</v>
       </c>
     </row>

--- a/ExcelProcesser.Tests/resources/matrixTest.xlsx
+++ b/ExcelProcesser.Tests/resources/matrixTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\Github\ExcelProcesser\ExcelProcesser.Tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189C96DB-5A04-48C3-A090-A67038339B79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E1ED00-FF40-4572-9715-80024F9195B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>一：货号，颜色，数量，配码</t>
   </si>
@@ -38,6 +38,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   2     3    3    2    1</t>
@@ -112,22 +113,42 @@
   <si>
     <t>Hello</t>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="167" formatCode="&quot;NT$&quot;#,##0;[Red]\-&quot;NT$&quot;#,##0"/>
-    <numFmt numFmtId="168" formatCode="&quot;NT$&quot;#,##0.00;[Red]\-&quot;NT$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="0.00_)"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="179" formatCode="&quot;NT$&quot;#,##0;[Red]\-&quot;NT$&quot;#,##0"/>
+    <numFmt numFmtId="180" formatCode="&quot;NT$&quot;#,##0.00;[Red]\-&quot;NT$&quot;#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="0.00_)"/>
+    <numFmt numFmtId="182" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -386,7 +407,7 @@
       <sz val="14"/>
       <color indexed="10"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -402,6 +423,7 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -409,17 +431,20 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -427,6 +452,7 @@
       <sz val="10"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -434,6 +460,7 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -813,24 +840,24 @@
   <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1026,6 +1053,24 @@
     <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1080,24 +1125,8 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="??" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1484,11 +1513,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="4" max="4" width="15.59765625" customWidth="1"/>
     <col min="5" max="5" width="11.296875" customWidth="1"/>
@@ -1496,32 +1525,32 @@
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-    </row>
-    <row r="2" spans="1:13" ht="28.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="36.6">
+      <c r="A1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="28.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="28.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1533,13 +1562,13 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.6" customHeight="1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1553,7 +1582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1561,7 +1590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1581,7 +1610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1592,7 +1621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1603,7 +1632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1620,7 +1649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1628,7 +1657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1636,7 +1665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1656,7 +1685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1667,17 +1696,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="B18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1697,7 +1726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1708,7 +1737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1719,7 +1748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="D22" s="6" t="s">
         <v>13</v>
       </c>
@@ -1728,11 +1757,20 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G24" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1740,36 +1778,42 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H25" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="8"/>
@@ -1779,7 +1823,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="10"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1790,17 +1834,17 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="C34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1813,7 +1857,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1826,7 +1870,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1839,7 +1883,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1852,7 +1896,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -1865,7 +1909,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -1878,7 +1922,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1891,7 +1935,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1904,7 +1948,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1917,7 +1961,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1930,7 +1974,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1943,7 +1987,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -1956,7 +2000,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1969,7 +2013,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -1982,7 +2026,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -1995,7 +2039,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2007,7 +2051,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -2019,7 +2063,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2032,7 +2076,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2045,7 +2089,7 @@
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2058,7 +2102,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -2071,7 +2115,7 @@
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -2084,7 +2128,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="13"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -2097,7 +2141,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -2110,7 +2154,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="17.399999999999999">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -2123,7 +2167,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -2136,7 +2180,7 @@
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="17.399999999999999">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -2150,7 +2194,7 @@
       <c r="K65" s="8"/>
       <c r="L65" s="17"/>
     </row>
-    <row r="66" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="17.399999999999999">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2164,7 +2208,7 @@
       <c r="K66" s="8"/>
       <c r="L66" s="17"/>
     </row>
-    <row r="67" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="17.399999999999999">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -2178,7 +2222,7 @@
       <c r="K67" s="8"/>
       <c r="L67" s="17"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -2191,7 +2235,7 @@
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -2204,7 +2248,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -2217,7 +2261,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -2230,7 +2274,7 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -2243,7 +2287,7 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -2256,77 +2300,77 @@
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="78"/>
-      <c r="B74" s="79"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="79"/>
+    <row r="74" spans="1:12">
+      <c r="A74" s="60"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="61"/>
       <c r="E74" s="18"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="81"/>
-      <c r="J74" s="78"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="79"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="74"/>
-      <c r="L75" s="75"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="62"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="64"/>
-      <c r="K76" s="65"/>
-      <c r="L76" s="66"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="63"/>
+      <c r="L74" s="61"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="64"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="80"/>
+      <c r="L75" s="81"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="68"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="77"/>
+      <c r="I76" s="78"/>
+      <c r="J76" s="70"/>
+      <c r="K76" s="71"/>
+      <c r="L76" s="72"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="64"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="67"/>
       <c r="E77" s="19"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="72"/>
-      <c r="J77" s="64"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="66"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="61"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="78"/>
+      <c r="J77" s="70"/>
+      <c r="K77" s="71"/>
+      <c r="L77" s="72"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="64"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="67"/>
       <c r="E78" s="19"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="64"/>
-      <c r="K78" s="65"/>
-      <c r="L78" s="66"/>
-    </row>
-    <row r="79" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="F78" s="68"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="68"/>
+      <c r="I78" s="69"/>
+      <c r="J78" s="70"/>
+      <c r="K78" s="71"/>
+      <c r="L78" s="72"/>
+    </row>
+    <row r="79" spans="1:12" ht="17.399999999999999">
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
       <c r="C79" s="21"/>
@@ -2340,7 +2384,7 @@
       <c r="K79" s="21"/>
       <c r="L79" s="22"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -2353,7 +2397,7 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -2366,7 +2410,7 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -2379,7 +2423,7 @@
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -2392,7 +2436,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -2405,7 +2449,7 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -2418,7 +2462,7 @@
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" s="23"/>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
@@ -2431,7 +2475,7 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" s="30"/>
       <c r="B87" s="31"/>
       <c r="C87" s="31"/>
@@ -2444,7 +2488,7 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" s="30"/>
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
@@ -2457,7 +2501,7 @@
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" s="30"/>
       <c r="B89" s="31"/>
       <c r="C89" s="31"/>
@@ -2470,7 +2514,7 @@
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90" s="39"/>
       <c r="B90" s="40"/>
       <c r="C90" s="41"/>
@@ -2483,7 +2527,7 @@
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" s="39"/>
       <c r="B91" s="44"/>
       <c r="C91" s="41"/>
@@ -2496,7 +2540,7 @@
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" s="39"/>
       <c r="B92" s="40"/>
       <c r="C92" s="41"/>
@@ -2509,7 +2553,7 @@
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" s="47"/>
       <c r="B93" s="48"/>
       <c r="C93" s="49"/>
@@ -2522,7 +2566,7 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" s="53"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -2535,7 +2579,7 @@
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" s="23"/>
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
@@ -2548,7 +2592,7 @@
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" s="30"/>
       <c r="B96" s="31"/>
       <c r="C96" s="31"/>
@@ -2561,7 +2605,7 @@
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="30"/>
       <c r="B97" s="31"/>
       <c r="C97" s="31"/>
@@ -2574,7 +2618,7 @@
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" s="30"/>
       <c r="B98" s="31"/>
       <c r="C98" s="31"/>
@@ -2587,7 +2631,7 @@
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" s="39"/>
       <c r="B99" s="40"/>
       <c r="C99" s="41"/>
@@ -2600,7 +2644,7 @@
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" s="39"/>
       <c r="B100" s="44"/>
       <c r="C100" s="41"/>
@@ -2613,7 +2657,7 @@
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" s="39"/>
       <c r="B101" s="40"/>
       <c r="C101" s="41"/>
@@ -2626,7 +2670,7 @@
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" s="47"/>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -2639,7 +2683,7 @@
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -2652,7 +2696,7 @@
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -2665,7 +2709,7 @@
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -2678,7 +2722,7 @@
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -2691,7 +2735,7 @@
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -2704,7 +2748,7 @@
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -2717,7 +2761,7 @@
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -2730,7 +2774,7 @@
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -2743,7 +2787,7 @@
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -2756,7 +2800,7 @@
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -2769,7 +2813,7 @@
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="55"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -2782,7 +2826,7 @@
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="56"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -2794,7 +2838,7 @@
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" s="56"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -2806,7 +2850,7 @@
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="A116" s="56"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -2818,7 +2862,7 @@
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="A117" s="56"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -2830,7 +2874,7 @@
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118" s="56"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -2842,7 +2886,7 @@
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12">
       <c r="A119" s="56"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -2854,11 +2898,11 @@
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120" s="56"/>
       <c r="C120" s="8"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12">
       <c r="A121" s="56"/>
       <c r="C121" s="8"/>
       <c r="D121" s="56"/>
@@ -2866,26 +2910,26 @@
       <c r="H121" s="56"/>
       <c r="I121" s="56"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12">
       <c r="A122" s="56"/>
       <c r="C122" s="8"/>
       <c r="G122" s="8"/>
     </row>
-    <row r="123" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="17.399999999999999">
       <c r="A123" s="56"/>
       <c r="C123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="L123" s="17"/>
     </row>
-    <row r="124" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="17.399999999999999">
       <c r="A124" s="56"/>
       <c r="C124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="L124" s="17"/>
     </row>
-    <row r="125" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="17.399999999999999">
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="F125" s="8"/>
@@ -2896,7 +2940,7 @@
       <c r="K125" s="8"/>
       <c r="L125" s="17"/>
     </row>
-    <row r="126" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="17.399999999999999">
       <c r="A126" s="56"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -2908,63 +2952,63 @@
       <c r="K126" s="8"/>
       <c r="L126" s="17"/>
     </row>
-    <row r="127" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="17.399999999999999">
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="17"/>
     </row>
-    <row r="128" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="17.399999999999999">
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="17"/>
     </row>
-    <row r="129" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="17.399999999999999">
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="17"/>
     </row>
-    <row r="130" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="17.399999999999999">
       <c r="D130" s="57"/>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="17"/>
     </row>
-    <row r="131" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="17.399999999999999">
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="17"/>
       <c r="L131" s="17"/>
     </row>
-    <row r="132" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="17.399999999999999">
       <c r="C132" s="8"/>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="17"/>
       <c r="L132" s="17"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12">
       <c r="C133" s="8"/>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12">
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="J134" s="8"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12">
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="J135" s="8"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12">
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="J136" s="8"/>
     </row>
-    <row r="137" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="17.399999999999999">
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -2972,7 +3016,7 @@
       <c r="K137" s="17"/>
       <c r="L137" s="17"/>
     </row>
-    <row r="138" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="17.399999999999999">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -2981,7 +3025,7 @@
       <c r="K138" s="17"/>
       <c r="L138" s="17"/>
     </row>
-    <row r="139" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="17.399999999999999">
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="56"/>
@@ -2990,21 +3034,21 @@
       <c r="K139" s="17"/>
       <c r="L139" s="17"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="E140" s="8"/>
       <c r="J140" s="8"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="E141" s="8"/>
       <c r="J141" s="8"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -3015,7 +3059,7 @@
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -3027,7 +3071,7 @@
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -3041,13 +3085,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:L74"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="F78:G78"/>
@@ -3062,6 +3099,13 @@
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="J77:L77"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:L74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
